--- a/ExcelSheetsFromAlliero/ALLIERO APP  Ansattliste - Alliero ansattnr navn og mobilnr.xlsx
+++ b/ExcelSheetsFromAlliero/ALLIERO APP  Ansattliste - Alliero ansattnr navn og mobilnr.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="20610" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51120" windowHeight="28360"/>
   </bookViews>
   <sheets>
     <sheet name="Avd" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Avd!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="724">
   <si>
     <t>Fornavn</t>
   </si>
@@ -2187,13 +2192,16 @@
   </si>
   <si>
     <t>Avd. 585 Fornyelse</t>
+  </si>
+  <si>
+    <t>Avd. 532 Tak og fasade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2325,6 +2333,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2633,7 +2663,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2676,6 +2706,8 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2685,7 +2717,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2707,7 +2739,9 @@
     <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Hyperkobling" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Inndata" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Koblet celle" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Kontrollcelle" xfId="13" builtinId="23" customBuiltin="1"/>
@@ -3028,20 +3062,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D262" sqref="D262"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>721</v>
       </c>
@@ -3058,7 +3092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>673</v>
       </c>
@@ -3075,7 +3109,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>24</v>
       </c>
@@ -3092,7 +3126,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>491</v>
       </c>
@@ -3109,7 +3143,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>582</v>
       </c>
@@ -3126,7 +3160,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>600</v>
       </c>
@@ -3143,7 +3177,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>243</v>
       </c>
@@ -3160,7 +3194,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>202</v>
       </c>
@@ -3177,7 +3211,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>156</v>
       </c>
@@ -3194,7 +3228,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>395</v>
       </c>
@@ -3211,7 +3245,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>494</v>
       </c>
@@ -3228,7 +3262,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>556</v>
       </c>
@@ -3245,7 +3279,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>145</v>
       </c>
@@ -3262,7 +3296,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>557</v>
       </c>
@@ -3279,7 +3313,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>520</v>
       </c>
@@ -3296,7 +3330,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>201</v>
       </c>
@@ -3313,7 +3347,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>610</v>
       </c>
@@ -3330,7 +3364,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>116</v>
       </c>
@@ -3347,7 +3381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>594</v>
       </c>
@@ -3364,7 +3398,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>105</v>
       </c>
@@ -3381,7 +3415,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>91</v>
       </c>
@@ -3398,7 +3432,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>574</v>
       </c>
@@ -3415,7 +3449,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>452</v>
       </c>
@@ -3432,7 +3466,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>522</v>
       </c>
@@ -3449,7 +3483,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>312</v>
       </c>
@@ -3466,7 +3500,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>588</v>
       </c>
@@ -3483,7 +3517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>381</v>
       </c>
@@ -3500,7 +3534,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>612</v>
       </c>
@@ -3517,7 +3551,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>398</v>
       </c>
@@ -3534,7 +3568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>415</v>
       </c>
@@ -3551,7 +3585,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>542</v>
       </c>
@@ -3568,7 +3602,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>483</v>
       </c>
@@ -3585,7 +3619,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>36</v>
       </c>
@@ -3602,7 +3636,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>454</v>
       </c>
@@ -3619,7 +3653,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>23</v>
       </c>
@@ -3636,7 +3670,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>131</v>
       </c>
@@ -3653,7 +3687,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>344</v>
       </c>
@@ -3670,7 +3704,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>472</v>
       </c>
@@ -3687,7 +3721,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>278</v>
       </c>
@@ -3704,7 +3738,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>455</v>
       </c>
@@ -3721,7 +3755,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>375</v>
       </c>
@@ -3738,7 +3772,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>136</v>
       </c>
@@ -3755,7 +3789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>500</v>
       </c>
@@ -3772,7 +3806,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>335</v>
       </c>
@@ -3789,7 +3823,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>555</v>
       </c>
@@ -3806,7 +3840,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>671</v>
       </c>
@@ -3823,7 +3857,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>564</v>
       </c>
@@ -3840,7 +3874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>563</v>
       </c>
@@ -3857,7 +3891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>485</v>
       </c>
@@ -3874,7 +3908,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>272</v>
       </c>
@@ -3891,7 +3925,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>587</v>
       </c>
@@ -3908,7 +3942,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>481</v>
       </c>
@@ -3925,7 +3959,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>509</v>
       </c>
@@ -3942,7 +3976,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>559</v>
       </c>
@@ -3959,7 +3993,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>210</v>
       </c>
@@ -3976,7 +4010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>21</v>
       </c>
@@ -3993,7 +4027,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="2">
         <v>400</v>
       </c>
@@ -4010,7 +4044,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <v>128</v>
       </c>
@@ -4027,7 +4061,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="2">
         <v>503</v>
       </c>
@@ -4044,7 +4078,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
         <v>401</v>
       </c>
@@ -4061,7 +4095,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <v>114</v>
       </c>
@@ -4078,7 +4112,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="2">
         <v>605</v>
       </c>
@@ -4095,7 +4129,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="2">
         <v>217</v>
       </c>
@@ -4112,7 +4146,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="2">
         <v>402</v>
       </c>
@@ -4129,7 +4163,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="2">
         <v>497</v>
       </c>
@@ -4146,7 +4180,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="2">
         <v>624</v>
       </c>
@@ -4163,7 +4197,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="2">
         <v>512</v>
       </c>
@@ -4180,7 +4214,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="2">
         <v>471</v>
       </c>
@@ -4197,7 +4231,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="2">
         <v>687</v>
       </c>
@@ -4214,7 +4248,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="2">
         <v>115</v>
       </c>
@@ -4231,7 +4265,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="2">
         <v>326</v>
       </c>
@@ -4248,7 +4282,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="2">
         <v>464</v>
       </c>
@@ -4265,7 +4299,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
         <v>687</v>
       </c>
@@ -4282,7 +4316,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="2">
         <v>523</v>
       </c>
@@ -4299,7 +4333,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="2">
         <v>515</v>
       </c>
@@ -4316,7 +4350,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="2">
         <v>137</v>
       </c>
@@ -4333,7 +4367,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="2">
         <v>525</v>
       </c>
@@ -4350,7 +4384,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="2">
         <v>524</v>
       </c>
@@ -4367,7 +4401,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="2">
         <v>214</v>
       </c>
@@ -4384,7 +4418,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="2">
         <v>-426</v>
       </c>
@@ -4401,7 +4435,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="2">
         <v>614</v>
       </c>
@@ -4418,7 +4452,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="2">
         <v>665</v>
       </c>
@@ -4435,7 +4469,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="2">
         <v>97</v>
       </c>
@@ -4452,7 +4486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>549</v>
       </c>
@@ -4469,7 +4503,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>597</v>
       </c>
@@ -4486,7 +4520,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="2">
         <v>124</v>
       </c>
@@ -4503,7 +4537,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>587</v>
       </c>
@@ -4520,7 +4554,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="2">
         <v>193</v>
       </c>
@@ -4534,7 +4568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="2">
         <v>459</v>
       </c>
@@ -4551,7 +4585,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="2">
         <v>85</v>
       </c>
@@ -4568,7 +4602,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="2">
         <v>526</v>
       </c>
@@ -4585,7 +4619,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="2">
         <v>256</v>
       </c>
@@ -4602,7 +4636,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="2">
         <v>404</v>
       </c>
@@ -4619,7 +4653,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="2">
         <v>406</v>
       </c>
@@ -4636,7 +4670,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="2">
         <v>643</v>
       </c>
@@ -4653,7 +4687,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="2">
         <v>257</v>
       </c>
@@ -4670,7 +4704,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="2">
         <v>613</v>
       </c>
@@ -4687,7 +4721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="2">
         <v>589</v>
       </c>
@@ -4704,7 +4738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="2">
         <v>590</v>
       </c>
@@ -4721,7 +4755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="2">
         <v>596</v>
       </c>
@@ -4738,7 +4772,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="2">
         <v>37</v>
       </c>
@@ -4755,7 +4789,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="2">
         <v>521</v>
       </c>
@@ -4772,7 +4806,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="2">
         <v>378</v>
       </c>
@@ -4789,7 +4823,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="2">
         <v>199</v>
       </c>
@@ -4806,7 +4840,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="2">
         <v>492</v>
       </c>
@@ -4823,7 +4857,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="2">
         <v>638</v>
       </c>
@@ -4840,7 +4874,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="2">
         <v>490</v>
       </c>
@@ -4857,7 +4891,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="2">
         <v>403</v>
       </c>
@@ -4874,7 +4908,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="2">
         <v>389</v>
       </c>
@@ -4891,7 +4925,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="2">
         <v>252</v>
       </c>
@@ -4908,7 +4942,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="2">
         <v>143</v>
       </c>
@@ -4925,7 +4959,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="2">
         <v>103</v>
       </c>
@@ -4942,7 +4976,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="2">
         <v>489</v>
       </c>
@@ -4959,7 +4993,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="2">
         <v>44</v>
       </c>
@@ -4976,7 +5010,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="2">
         <v>408</v>
       </c>
@@ -4993,7 +5027,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="2">
         <v>690</v>
       </c>
@@ -5010,7 +5044,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="2">
         <v>688</v>
       </c>
@@ -5027,7 +5061,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="2">
         <v>662</v>
       </c>
@@ -5044,7 +5078,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="2">
         <v>163</v>
       </c>
@@ -5061,7 +5095,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="2">
         <v>191</v>
       </c>
@@ -5078,7 +5112,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="2">
         <v>111</v>
       </c>
@@ -5095,7 +5129,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="2">
         <v>453</v>
       </c>
@@ -5112,7 +5146,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="2">
         <v>663</v>
       </c>
@@ -5129,7 +5163,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -5146,7 +5180,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="2">
         <v>669</v>
       </c>
@@ -5163,7 +5197,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="2">
         <v>195</v>
       </c>
@@ -5180,7 +5214,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="2">
         <v>120</v>
       </c>
@@ -5197,7 +5231,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="2">
         <v>484</v>
       </c>
@@ -5214,7 +5248,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="2">
         <v>144</v>
       </c>
@@ -5231,7 +5265,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="2">
         <v>674</v>
       </c>
@@ -5248,7 +5282,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="2">
         <v>333</v>
       </c>
@@ -5265,7 +5299,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="2">
         <v>258</v>
       </c>
@@ -5282,7 +5316,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
         <v>624</v>
       </c>
@@ -5299,7 +5333,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="2">
         <v>127</v>
       </c>
@@ -5316,7 +5350,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="2">
         <v>569</v>
       </c>
@@ -5333,7 +5367,7 @@
         <v>46702510280</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="2">
         <v>462</v>
       </c>
@@ -5350,7 +5384,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="2">
         <v>39</v>
       </c>
@@ -5367,7 +5401,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="2">
         <v>155</v>
       </c>
@@ -5384,7 +5418,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="2">
         <v>322</v>
       </c>
@@ -5401,7 +5435,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="2">
         <v>197</v>
       </c>
@@ -5418,7 +5452,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="2">
         <v>25</v>
       </c>
@@ -5435,7 +5469,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="2">
         <v>139</v>
       </c>
@@ -5452,7 +5486,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="2">
         <v>697</v>
       </c>
@@ -5469,7 +5503,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="2">
         <v>691</v>
       </c>
@@ -5486,7 +5520,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="2">
         <v>562</v>
       </c>
@@ -5503,7 +5537,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="2">
         <v>661</v>
       </c>
@@ -5520,7 +5554,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="2">
         <v>629</v>
       </c>
@@ -5537,7 +5571,7 @@
         <v>40579573</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="2">
         <v>576</v>
       </c>
@@ -5554,7 +5588,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="2">
         <v>599</v>
       </c>
@@ -5571,7 +5605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="2">
         <v>152</v>
       </c>
@@ -5588,7 +5622,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="2">
         <v>561</v>
       </c>
@@ -5605,7 +5639,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="2">
         <v>379</v>
       </c>
@@ -5622,7 +5656,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="2">
         <v>380</v>
       </c>
@@ -5639,7 +5673,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="2">
         <v>510</v>
       </c>
@@ -5656,7 +5690,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="2">
         <v>535</v>
       </c>
@@ -5673,7 +5707,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="2">
         <v>207</v>
       </c>
@@ -5690,7 +5724,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="2">
         <v>450</v>
       </c>
@@ -5707,7 +5741,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="2">
         <v>457</v>
       </c>
@@ -5724,7 +5758,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
         <v>636</v>
       </c>
@@ -5741,7 +5775,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="2">
         <v>463</v>
       </c>
@@ -5758,7 +5792,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="2">
         <v>505</v>
       </c>
@@ -5775,7 +5809,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="2">
         <v>27</v>
       </c>
@@ -5792,7 +5826,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="2">
         <v>414</v>
       </c>
@@ -5809,7 +5843,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="2">
         <v>667</v>
       </c>
@@ -5826,7 +5860,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="2">
         <v>553</v>
       </c>
@@ -5843,7 +5877,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="2">
         <v>180</v>
       </c>
@@ -5860,7 +5894,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="2">
         <v>188</v>
       </c>
@@ -5877,7 +5911,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="2">
         <v>32</v>
       </c>
@@ -5894,7 +5928,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="2">
         <v>299</v>
       </c>
@@ -5911,7 +5945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="2">
         <v>336</v>
       </c>
@@ -5928,7 +5962,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="2">
         <v>385</v>
       </c>
@@ -5945,7 +5979,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="2">
         <v>118</v>
       </c>
@@ -5962,7 +5996,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="2">
         <v>167</v>
       </c>
@@ -5979,7 +6013,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="2">
         <v>337</v>
       </c>
@@ -5996,7 +6030,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="2">
         <v>112</v>
       </c>
@@ -6013,7 +6047,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="2">
         <v>209</v>
       </c>
@@ -6030,7 +6064,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="2">
         <v>458</v>
       </c>
@@ -6047,7 +6081,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="2">
         <v>428</v>
       </c>
@@ -6064,7 +6098,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
         <v>649</v>
       </c>
@@ -6081,7 +6115,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="2">
         <v>175</v>
       </c>
@@ -6098,7 +6132,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="2">
         <v>496</v>
       </c>
@@ -6115,7 +6149,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="2">
         <v>468</v>
       </c>
@@ -6132,7 +6166,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="2">
         <v>570</v>
       </c>
@@ -6143,13 +6177,13 @@
         <v>292</v>
       </c>
       <c r="D183" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E183" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="2">
         <v>174</v>
       </c>
@@ -6160,13 +6194,13 @@
         <v>210</v>
       </c>
       <c r="D184" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E184" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="2">
         <v>253</v>
       </c>
@@ -6177,13 +6211,13 @@
         <v>210</v>
       </c>
       <c r="D185" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E185" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="2">
         <v>684</v>
       </c>
@@ -6194,10 +6228,10 @@
         <v>210</v>
       </c>
       <c r="D186" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="2">
         <v>140</v>
       </c>
@@ -6208,13 +6242,13 @@
         <v>51</v>
       </c>
       <c r="D187" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E187" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="2">
         <v>161</v>
       </c>
@@ -6231,7 +6265,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="2">
         <v>135</v>
       </c>
@@ -6242,13 +6276,13 @@
         <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E189" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="2">
         <v>660</v>
       </c>
@@ -6259,13 +6293,13 @@
         <v>362</v>
       </c>
       <c r="D190" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E190" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="2">
         <v>461</v>
       </c>
@@ -6282,7 +6316,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="2">
         <v>578</v>
       </c>
@@ -6299,7 +6333,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="2">
         <v>153</v>
       </c>
@@ -6310,13 +6344,13 @@
         <v>412</v>
       </c>
       <c r="D193" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E193" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="2">
         <v>390</v>
       </c>
@@ -6333,7 +6367,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="2">
         <v>34</v>
       </c>
@@ -6350,7 +6384,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="2">
         <v>528</v>
       </c>
@@ -6367,7 +6401,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="2">
         <v>146</v>
       </c>
@@ -6384,7 +6418,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="2">
         <v>392</v>
       </c>
@@ -6401,7 +6435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="2">
         <v>488</v>
       </c>
@@ -6418,7 +6452,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="2">
         <v>541</v>
       </c>
@@ -6435,7 +6469,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="2">
         <v>545</v>
       </c>
@@ -6452,7 +6486,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="2">
         <v>477</v>
       </c>
@@ -6469,7 +6503,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="2">
         <v>35</v>
       </c>
@@ -6486,7 +6520,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="2">
         <v>233</v>
       </c>
@@ -6503,7 +6537,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -6514,13 +6548,13 @@
         <v>137</v>
       </c>
       <c r="D205" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E205" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="2">
         <v>507</v>
       </c>
@@ -6531,13 +6565,13 @@
         <v>562</v>
       </c>
       <c r="D206" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E206" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="2">
         <v>536</v>
       </c>
@@ -6548,13 +6582,13 @@
         <v>235</v>
       </c>
       <c r="D207" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E207" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="2">
         <v>454</v>
       </c>
@@ -6571,7 +6605,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="2">
         <v>342</v>
       </c>
@@ -6582,13 +6616,13 @@
         <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E209" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="2">
         <v>476</v>
       </c>
@@ -6599,13 +6633,13 @@
         <v>261</v>
       </c>
       <c r="D210" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E210" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="2">
         <v>331</v>
       </c>
@@ -6622,7 +6656,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="2">
         <v>540</v>
       </c>
@@ -6639,7 +6673,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="2">
         <v>597</v>
       </c>
@@ -6650,13 +6684,13 @@
         <v>96</v>
       </c>
       <c r="D213" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E213" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="2">
         <v>478</v>
       </c>
@@ -6673,7 +6707,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="2">
         <v>558</v>
       </c>
@@ -6690,7 +6724,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="2">
         <v>486</v>
       </c>
@@ -6707,7 +6741,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="2">
         <v>198</v>
       </c>
@@ -6718,13 +6752,13 @@
         <v>647</v>
       </c>
       <c r="D217" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E217" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="2">
         <v>219</v>
       </c>
@@ -6741,7 +6775,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="2">
         <v>501</v>
       </c>
@@ -6752,13 +6786,13 @@
         <v>634</v>
       </c>
       <c r="D219" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E219" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="2">
         <v>178</v>
       </c>
@@ -6769,13 +6803,13 @@
         <v>273</v>
       </c>
       <c r="D220" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E220" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="2">
         <v>248</v>
       </c>
@@ -6786,13 +6820,13 @@
         <v>273</v>
       </c>
       <c r="D221" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E221" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="2" t="s">
         <v>568</v>
       </c>
@@ -6803,13 +6837,13 @@
         <v>273</v>
       </c>
       <c r="D222" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E222" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="2">
         <v>565</v>
       </c>
@@ -6820,13 +6854,13 @@
         <v>418</v>
       </c>
       <c r="D223" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E223" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="2">
         <v>420</v>
       </c>
@@ -6843,7 +6877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="2">
         <v>332</v>
       </c>
@@ -6860,7 +6894,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="2">
         <v>586</v>
       </c>
@@ -6871,13 +6905,13 @@
         <v>321</v>
       </c>
       <c r="D226" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E226" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="2">
         <v>604</v>
       </c>
@@ -6888,13 +6922,13 @@
         <v>321</v>
       </c>
       <c r="D227" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E227" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="2">
         <v>470</v>
       </c>
@@ -6911,7 +6945,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="2">
         <v>426</v>
       </c>
@@ -6928,7 +6962,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="2">
         <v>19</v>
       </c>
@@ -6945,7 +6979,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="2">
         <v>130</v>
       </c>
@@ -6956,13 +6990,13 @@
         <v>662</v>
       </c>
       <c r="D231" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E231" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="2">
         <v>134</v>
       </c>
@@ -6973,13 +7007,13 @@
         <v>134</v>
       </c>
       <c r="D232" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E232" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="2">
         <v>421</v>
       </c>
@@ -6996,7 +7030,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="2">
         <v>574</v>
       </c>
@@ -7007,13 +7041,13 @@
         <v>421</v>
       </c>
       <c r="D234" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E234" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="2" t="s">
         <v>679</v>
       </c>
@@ -7024,13 +7058,13 @@
         <v>421</v>
       </c>
       <c r="D235" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E235" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="2">
         <v>227</v>
       </c>
@@ -7047,7 +7081,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="2">
         <v>554</v>
       </c>
@@ -7058,13 +7092,13 @@
         <v>32</v>
       </c>
       <c r="D237" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E237" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="2">
         <v>422</v>
       </c>
@@ -7075,13 +7109,13 @@
         <v>227</v>
       </c>
       <c r="D238" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E238" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
         <v>685</v>
       </c>
@@ -7092,10 +7126,10 @@
         <v>686</v>
       </c>
       <c r="D239" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="2">
         <v>238</v>
       </c>
@@ -7106,13 +7140,13 @@
         <v>207</v>
       </c>
       <c r="D240" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E240" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="2">
         <v>109</v>
       </c>
@@ -7129,7 +7163,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="2">
         <v>228</v>
       </c>
@@ -7146,7 +7180,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="2">
         <v>92</v>
       </c>
@@ -7163,7 +7197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="2">
         <v>100</v>
       </c>
@@ -7174,13 +7208,13 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E244" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="2">
         <v>125</v>
       </c>
@@ -7191,13 +7225,13 @@
         <v>253</v>
       </c>
       <c r="D245" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E245" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="2" t="s">
         <v>423</v>
       </c>
@@ -7208,13 +7242,13 @@
         <v>253</v>
       </c>
       <c r="D246" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E246" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="2">
         <v>598</v>
       </c>
@@ -7225,13 +7259,13 @@
         <v>253</v>
       </c>
       <c r="D247" t="s">
-        <v>17</v>
+        <v>723</v>
       </c>
       <c r="E247" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="2">
         <v>185</v>
       </c>
@@ -7248,7 +7282,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="2">
         <v>602</v>
       </c>
@@ -7265,7 +7299,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="2">
         <v>575</v>
       </c>
@@ -7282,7 +7316,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="2">
         <v>579</v>
       </c>
@@ -7293,13 +7327,13 @@
         <v>617</v>
       </c>
       <c r="D251" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E251" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="2">
         <v>213</v>
       </c>
@@ -7316,7 +7350,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="2">
         <v>409</v>
       </c>
@@ -7333,7 +7367,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="2">
         <v>439</v>
       </c>
@@ -7350,7 +7384,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="2">
         <v>456</v>
       </c>
@@ -7367,7 +7401,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="2" t="s">
         <v>682</v>
       </c>
@@ -7384,7 +7418,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="2">
         <v>645</v>
       </c>
@@ -7401,7 +7435,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="2">
         <v>465</v>
       </c>
@@ -7418,7 +7452,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="2">
         <v>537</v>
       </c>
@@ -7435,7 +7469,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="2">
         <v>592</v>
       </c>
@@ -7452,7 +7486,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="2">
         <v>538</v>
       </c>
@@ -7469,7 +7503,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="2">
         <v>338</v>
       </c>
@@ -7486,7 +7520,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="2">
         <v>148</v>
       </c>
@@ -7503,7 +7537,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="2">
         <v>474</v>
       </c>
@@ -7524,13 +7558,19 @@
   <sortState ref="A1:XFD316">
     <sortCondition ref="C1:C316"/>
   </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Fet"&amp;12Ansattliste - Alliero AS&amp;"-,Normal"&amp;11
 Ansattnr, navn og mobilnr.&amp;R&amp;G</oddHeader>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7542,8 +7582,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>